--- a/biology/Zoologie/Gros-bec_noir_et_jaune/Gros-bec_noir_et_jaune.xlsx
+++ b/biology/Zoologie/Gros-bec_noir_et_jaune/Gros-bec_noir_et_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycerobas icterioides
 Le Gros-bec noir et jaune (Mycerobas icterioides) est une espèce de passereaux de la famille des Fringillidae. D'après Alan P. Peterson, c'est une espèce monotypique.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord-est de l’Afghanistan, extrême nord du Pakistan (Safed Koh), nord de l’Inde (Jammu, Cachemire, Himachal Pradesh, Tehri Garhwal).
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gros-bec assez commun fréquente les forêts de chênes (Quercus), de cèdres de l’Himalaya (Cedrus deodara), de sapins de l’Himalaya (Abies spectabilis), d’épicéas de l’Himalaya (Picea smithiana) et de pins (Pinus) entre 1500 et 3050 m. Il habite de préférence les forêts de pins, de sapins argentés et de cèdres mais il visite aussi les bois de chênes en hiver.
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été traitée de façon très généraliste par différents auteurs mentionnant des pousses et de graines de conifères, des baies et des graines d’arbres et de buissons ainsi que des insectes mais Roberts (1992) a apporté une plus importante contribution à l’alimentation. Les gros-becs prélèvent différentes graines d’arbres et en particulier de l’if commun (Taxus baccata) dont le broyage des arilles occasionne un bruit audible à 25 m de distance. Il les a vus aussi se nourrir de cynorrhodons de rosier, fin décembre, sous une neige épaisse dans la petite ville de Murree, de jeunes pousses de sapin argenté (Abies pindrow), au mois de mai à Dunga Gali, et de cigales, en juillet et en août, sur les collines de Murree. Des larves et des escargots complètent le régime alimentaire. Roberts (1992) ajoute que Ashiq Ahmad, du Wildlife Investigation Officer, Pakistan Forest Institute, l’informa en 1984 que lors d’une prolifération estivale de phalènes du pin (Bupalus piniaria), les gros-becs du secteur exploitèrent intensivement cette surabondance de nourriture. Ils capturaient uniquement des papillons adultes en prenant soin de leur retirer les ailes avant de les avaler.
 </t>
@@ -605,7 +623,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bates et Lowther (1952), qui l’ont observé dans le Cachemire, rapportent : « Ce gros-bec, avec sa grande taille, son plumage aux couleurs vives et son bec massif, est le fringille le plus frappant de l’ouest de l’Himalaya. Il reste souvent immobile dans les bois de pin mais des émissions vocales trahissent sa présence. Ces sifflements sonores et agréables résonnent souvent au loin à travers les versants boisés. Ils sont souvent répétés lorsque ces oiseaux se déplacent en groupes à travers les cimes des arbres. Un cri de contact, émis au repos, est aussi utilisé par les deux sexes quand ils s’interpellent du nid. En plus des graines, ils se nourrissent de jeunes pousses de pins et de baies qu’ils collectent dans le sous-bois. » Ces auteurs ajoutent qu’ils ont observé plus de 50 gros-becs, apparemment tous des mâles, sortant ensemble d’une formation de grands et épais buissons en lisière de forêt, fin juin, dans la région de Tanin, Cachemire. L’instinct grégaire se retrouve aussi dans leur habitude de jucher ensemble même pendant la reproduction mais il tend à s’intensifier après la nidification car des groupes plus ou moins importants ont régulièrement été observés à cette époque.
 Hors saison de reproduction, les gros-becs noirs et jaunes constituent des groupes plus ou moins importants (parfois plusieurs dizaines d’individus) et descendent à plus basse altitude (2000 m ou encore plus bas) notamment en cas d’importantes chutes de neige comme à Daramsala en Himachal Pradesh en janvier 2005, photos à l’appui (in Ottaviani 2008).
@@ -638,7 +658,9 @@
           <t>Parade nuptiale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Roberts (1992), les premières parades nuptiales commencent en juin dans les
 collines de Murree, nord du Pakistan, quand des mâles se mettent à présenter des brindilles
@@ -677,7 +699,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">D’après Ali &amp; Ripley (2001), la saison dure d’avril à juillet mais avec un pic surtout en mai et en juin. Le nid est une coupe assez large de fins rameaux, d’herbes, de mousse et
 de lichen avec un revêtement interne d’herbes fines et de radicelles. Il est construit par les deux sexes et placé entre 3 et 18 m de hauteur dans un conifère, généralement près du tronc. La ponte se compose de deux ou trois œufs verdâtres tachetés, vermiculés et lignés de brun-noir.
